--- a/JupyterNotebooks/AveragedIntensites/BrassA-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BrassA-HW15.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="BrassA-HW15.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="BrassA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1208,6 +1208,56 @@
         <v>1.007690327394267</v>
       </c>
     </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.381176291822647</v>
+      </c>
+      <c r="D16">
+        <v>1.012336909755702</v>
+      </c>
+      <c r="E16">
+        <v>0.9419819153733993</v>
+      </c>
+      <c r="F16">
+        <v>0.9383915040732334</v>
+      </c>
+      <c r="G16">
+        <v>1.381176291822647</v>
+      </c>
+      <c r="H16">
+        <v>1.012336909755702</v>
+      </c>
+      <c r="I16">
+        <v>1.019680040198932</v>
+      </c>
+      <c r="J16">
+        <v>0.8337931478668805</v>
+      </c>
+      <c r="K16">
+        <v>1.075950142525188</v>
+      </c>
+      <c r="L16">
+        <v>0.934283842502692</v>
+      </c>
+      <c r="M16">
+        <v>1.381176291822647</v>
+      </c>
+      <c r="N16">
+        <v>0.9771594125645509</v>
+      </c>
+      <c r="O16">
+        <v>1.068471655256246</v>
+      </c>
+      <c r="P16">
+        <v>1.017199224264834</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/BrassA-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BrassA-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.381176291822647</v>

--- a/JupyterNotebooks/AveragedIntensites/BrassA-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BrassA-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.2529119999999995</v>
+        <v>1.381176291822647</v>
       </c>
       <c r="D10">
-        <v>0.304656000000001</v>
+        <v>1.012336909755702</v>
       </c>
       <c r="E10">
-        <v>2.390463999999993</v>
+        <v>0.9419819153733993</v>
       </c>
       <c r="F10">
-        <v>0.7300400000000009</v>
+        <v>0.9383915040732334</v>
       </c>
       <c r="G10">
-        <v>0.2529119999999995</v>
+        <v>1.381176291822647</v>
       </c>
       <c r="H10">
-        <v>0.304656000000001</v>
+        <v>1.012336909755702</v>
       </c>
       <c r="I10">
-        <v>1.492764000000001</v>
+        <v>1.019680040198932</v>
       </c>
       <c r="J10">
-        <v>1.303948000000001</v>
+        <v>0.8337931478668805</v>
       </c>
       <c r="K10">
-        <v>0.6531759999999994</v>
+        <v>1.075950142525188</v>
       </c>
       <c r="L10">
-        <v>0.5854080000000007</v>
+        <v>0.934283842502692</v>
       </c>
       <c r="M10">
-        <v>0.2529119999999995</v>
+        <v>1.381176291822647</v>
       </c>
       <c r="N10">
-        <v>1.347559999999997</v>
+        <v>0.9771594125645509</v>
       </c>
       <c r="O10">
-        <v>0.9195179999999985</v>
+        <v>1.068471655256246</v>
       </c>
       <c r="P10">
-        <v>0.9641709999999996</v>
+        <v>1.017199224264834</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.22</v>
+        <v>1.124839789941301</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.4504822391769207</v>
       </c>
       <c r="E11">
-        <v>3.431124999999996</v>
+        <v>1.032219749756721</v>
       </c>
       <c r="F11">
-        <v>0.32</v>
+        <v>1.02309782738241</v>
       </c>
       <c r="G11">
-        <v>0.22</v>
+        <v>1.124839789941301</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.4504822391769207</v>
       </c>
       <c r="I11">
-        <v>2.011812499999997</v>
+        <v>1.021224760133339</v>
       </c>
       <c r="J11">
-        <v>1.269312499999999</v>
+        <v>1.04889209622563</v>
       </c>
       <c r="K11">
-        <v>0.45</v>
+        <v>1.082024463348018</v>
       </c>
       <c r="L11">
-        <v>0.17</v>
+        <v>0.7854982727673638</v>
       </c>
       <c r="M11">
-        <v>0.22</v>
+        <v>1.124839789941301</v>
       </c>
       <c r="N11">
-        <v>1.715562499999998</v>
+        <v>0.741350994466821</v>
       </c>
       <c r="O11">
-        <v>0.9927812499999991</v>
+        <v>0.9076599015643381</v>
       </c>
       <c r="P11">
-        <v>0.984031249999999</v>
+        <v>0.9460348998414629</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.559569318297599</v>
+        <v>1.115237790146033</v>
       </c>
       <c r="D12">
-        <v>0.4193511759872003</v>
+        <v>0.4517721387455955</v>
       </c>
       <c r="E12">
-        <v>2.385195757875199</v>
+        <v>1.033149768736777</v>
       </c>
       <c r="F12">
-        <v>0.6062031318016029</v>
+        <v>1.025175716126144</v>
       </c>
       <c r="G12">
-        <v>0.559569318297599</v>
+        <v>1.115237790146033</v>
       </c>
       <c r="H12">
-        <v>0.4193511759872003</v>
+        <v>0.4517721387455955</v>
       </c>
       <c r="I12">
-        <v>1.573866507878406</v>
+        <v>1.020358890074111</v>
       </c>
       <c r="J12">
-        <v>1.147354507776001</v>
+        <v>1.051429719414694</v>
       </c>
       <c r="K12">
-        <v>0.6853780701184026</v>
+        <v>1.080892487447253</v>
       </c>
       <c r="L12">
-        <v>0.5180080614400016</v>
+        <v>0.787670478694159</v>
       </c>
       <c r="M12">
-        <v>0.5595473244159994</v>
+        <v>1.115237790146033</v>
       </c>
       <c r="N12">
-        <v>1.4022734669312</v>
+        <v>0.742460953741186</v>
       </c>
       <c r="O12">
-        <v>0.9925798459904003</v>
+        <v>0.9063338534386374</v>
       </c>
       <c r="P12">
-        <v>0.9868658163968015</v>
+        <v>0.9457108736730959</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.002347813614447</v>
+        <v>1.123399619717609</v>
       </c>
       <c r="D13">
-        <v>0.9993412295267826</v>
+        <v>0.4508446905108945</v>
       </c>
       <c r="E13">
-        <v>0.9884201037650625</v>
+        <v>1.031153942278154</v>
       </c>
       <c r="F13">
-        <v>0.9906551814170614</v>
+        <v>1.023859427111595</v>
       </c>
       <c r="G13">
-        <v>1.002347813614447</v>
+        <v>1.123399619717609</v>
       </c>
       <c r="H13">
-        <v>0.9993412295267826</v>
+        <v>0.4508446905108945</v>
       </c>
       <c r="I13">
-        <v>0.9914066824159944</v>
+        <v>1.020467403933906</v>
       </c>
       <c r="J13">
-        <v>0.9919942536839222</v>
+        <v>1.049345011083121</v>
       </c>
       <c r="K13">
-        <v>0.9927559371417637</v>
+        <v>1.08203951652239</v>
       </c>
       <c r="L13">
-        <v>0.9910252390990737</v>
+        <v>0.7861612692067687</v>
       </c>
       <c r="M13">
-        <v>1.002273149387259</v>
+        <v>1.123399619717609</v>
       </c>
       <c r="N13">
-        <v>0.9938806666459226</v>
+        <v>0.7409993163945243</v>
       </c>
       <c r="O13">
-        <v>0.9951910820808383</v>
+        <v>0.9073144199045631</v>
       </c>
       <c r="P13">
-        <v>0.9934933050830135</v>
+        <v>0.9459088600455547</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8552154476436461</v>
+        <v>0.2529119999999995</v>
       </c>
       <c r="D14">
-        <v>0.9215891253161151</v>
+        <v>0.304656000000001</v>
       </c>
       <c r="E14">
-        <v>1.061187596622874</v>
+        <v>2.390463999999993</v>
       </c>
       <c r="F14">
-        <v>1.030543596584187</v>
+        <v>0.7300400000000009</v>
       </c>
       <c r="G14">
-        <v>0.8552154476436461</v>
+        <v>0.2529119999999995</v>
       </c>
       <c r="H14">
-        <v>0.9215891253161151</v>
+        <v>0.304656000000001</v>
       </c>
       <c r="I14">
-        <v>0.9994015420794562</v>
+        <v>1.492764000000001</v>
       </c>
       <c r="J14">
-        <v>1.029268873458829</v>
+        <v>1.303948000000001</v>
       </c>
       <c r="K14">
-        <v>0.9925621933323842</v>
+        <v>0.6531759999999994</v>
       </c>
       <c r="L14">
-        <v>0.9888816926533424</v>
+        <v>0.5854080000000007</v>
       </c>
       <c r="M14">
-        <v>0.8552154476436461</v>
+        <v>0.2529119999999995</v>
       </c>
       <c r="N14">
-        <v>0.9913883609694947</v>
+        <v>1.347559999999997</v>
       </c>
       <c r="O14">
-        <v>0.9671339415417056</v>
+        <v>0.9195179999999985</v>
       </c>
       <c r="P14">
-        <v>0.9848312584613543</v>
+        <v>0.9641709999999996</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9763725308982886</v>
+        <v>0.22</v>
       </c>
       <c r="D15">
-        <v>1.141989575114175</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.9942972038785586</v>
+        <v>3.431124999999996</v>
       </c>
       <c r="F15">
-        <v>0.9838510202069427</v>
+        <v>0.32</v>
       </c>
       <c r="G15">
-        <v>0.9763725308982886</v>
+        <v>0.22</v>
       </c>
       <c r="H15">
-        <v>1.141989575114175</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9673435874704868</v>
+        <v>2.011812499999997</v>
       </c>
       <c r="J15">
-        <v>0.9870750746515583</v>
+        <v>1.269312499999999</v>
       </c>
       <c r="K15">
-        <v>0.9580668478763718</v>
+        <v>0.45</v>
       </c>
       <c r="L15">
-        <v>1.052526779057758</v>
+        <v>0.17</v>
       </c>
       <c r="M15">
-        <v>0.97632263949902</v>
+        <v>0.22</v>
       </c>
       <c r="N15">
-        <v>1.068143389496367</v>
+        <v>1.715562499999998</v>
       </c>
       <c r="O15">
-        <v>1.024127582524491</v>
+        <v>0.9927812499999991</v>
       </c>
       <c r="P15">
-        <v>1.007690327394267</v>
+        <v>0.984031249999999</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.381176291822647</v>
+        <v>0.559569318297599</v>
       </c>
       <c r="D16">
-        <v>1.012336909755702</v>
+        <v>0.4193511759872003</v>
       </c>
       <c r="E16">
-        <v>0.9419819153733993</v>
+        <v>2.385195757875199</v>
       </c>
       <c r="F16">
-        <v>0.9383915040732334</v>
+        <v>0.6062031318016029</v>
       </c>
       <c r="G16">
-        <v>1.381176291822647</v>
+        <v>0.559569318297599</v>
       </c>
       <c r="H16">
-        <v>1.012336909755702</v>
+        <v>0.4193511759872003</v>
       </c>
       <c r="I16">
-        <v>1.019680040198932</v>
+        <v>1.573866507878406</v>
       </c>
       <c r="J16">
-        <v>0.8337931478668805</v>
+        <v>1.147354507776001</v>
       </c>
       <c r="K16">
-        <v>1.075950142525188</v>
+        <v>0.6853780701184026</v>
       </c>
       <c r="L16">
-        <v>0.934283842502692</v>
+        <v>0.5180080614400016</v>
       </c>
       <c r="M16">
-        <v>1.381176291822647</v>
+        <v>0.5595473244159994</v>
       </c>
       <c r="N16">
-        <v>0.9771594125645509</v>
+        <v>1.4022734669312</v>
       </c>
       <c r="O16">
-        <v>1.068471655256246</v>
+        <v>0.9925798459904003</v>
       </c>
       <c r="P16">
-        <v>1.017199224264834</v>
+        <v>0.9868658163968015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>1.002347813614447</v>
+      </c>
+      <c r="D17">
+        <v>0.9993412295267826</v>
+      </c>
+      <c r="E17">
+        <v>0.9884201037650625</v>
+      </c>
+      <c r="F17">
+        <v>0.9906551814170614</v>
+      </c>
+      <c r="G17">
+        <v>1.002347813614447</v>
+      </c>
+      <c r="H17">
+        <v>0.9993412295267826</v>
+      </c>
+      <c r="I17">
+        <v>0.9914066824159944</v>
+      </c>
+      <c r="J17">
+        <v>0.9919942536839222</v>
+      </c>
+      <c r="K17">
+        <v>0.9927559371417637</v>
+      </c>
+      <c r="L17">
+        <v>0.9910252390990737</v>
+      </c>
+      <c r="M17">
+        <v>1.002273149387259</v>
+      </c>
+      <c r="N17">
+        <v>0.9938806666459226</v>
+      </c>
+      <c r="O17">
+        <v>0.9951910820808383</v>
+      </c>
+      <c r="P17">
+        <v>0.9934933050830135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.8552154476436461</v>
+      </c>
+      <c r="D18">
+        <v>0.9215891253161151</v>
+      </c>
+      <c r="E18">
+        <v>1.061187596622874</v>
+      </c>
+      <c r="F18">
+        <v>1.030543596584187</v>
+      </c>
+      <c r="G18">
+        <v>0.8552154476436461</v>
+      </c>
+      <c r="H18">
+        <v>0.9215891253161151</v>
+      </c>
+      <c r="I18">
+        <v>0.9994015420794562</v>
+      </c>
+      <c r="J18">
+        <v>1.029268873458829</v>
+      </c>
+      <c r="K18">
+        <v>0.9925621933323842</v>
+      </c>
+      <c r="L18">
+        <v>0.9888816926533424</v>
+      </c>
+      <c r="M18">
+        <v>0.8552154476436461</v>
+      </c>
+      <c r="N18">
+        <v>0.9913883609694947</v>
+      </c>
+      <c r="O18">
+        <v>0.9671339415417056</v>
+      </c>
+      <c r="P18">
+        <v>0.9848312584613543</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9763725308982886</v>
+      </c>
+      <c r="D19">
+        <v>1.141989575114175</v>
+      </c>
+      <c r="E19">
+        <v>0.9942972038785586</v>
+      </c>
+      <c r="F19">
+        <v>0.9838510202069427</v>
+      </c>
+      <c r="G19">
+        <v>0.9763725308982886</v>
+      </c>
+      <c r="H19">
+        <v>1.141989575114175</v>
+      </c>
+      <c r="I19">
+        <v>0.9673435874704868</v>
+      </c>
+      <c r="J19">
+        <v>0.9870750746515583</v>
+      </c>
+      <c r="K19">
+        <v>0.9580668478763718</v>
+      </c>
+      <c r="L19">
+        <v>1.052526779057758</v>
+      </c>
+      <c r="M19">
+        <v>0.97632263949902</v>
+      </c>
+      <c r="N19">
+        <v>1.068143389496367</v>
+      </c>
+      <c r="O19">
+        <v>1.024127582524491</v>
+      </c>
+      <c r="P19">
+        <v>1.007690327394267</v>
       </c>
     </row>
   </sheetData>
